--- a/selenium/target/classes/credentials.xlsx
+++ b/selenium/target/classes/credentials.xlsx
@@ -372,7 +372,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,6 +411,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
